--- a/data/tabular_data/swissprot clustering msa results thpi 90.xlsx
+++ b/data/tabular_data/swissprot clustering msa results thpi 90.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="108" documentId="09D1842FB96B8A63D6D4580CEC8B43A785CCD1F1" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{4E98AAAA-83FE-4A61-BCFB-D7A15C50729D}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="09D1842FB96B8A63D6D4580CEC8B43A785CCD1F1" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{790E6498-0DB4-4DA1-BA48-EB9C9C4FF02C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Average(CD-HIT)</t>
+  </si>
+  <si>
+    <t>ClusterSize(Brute-force)</t>
+  </si>
+  <si>
+    <t>MinimumPercentIdentity(Brute-force)</t>
+  </si>
+  <si>
+    <t>Average(Brute-force)</t>
   </si>
 </sst>
 </file>
@@ -365,25 +374,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +418,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -428,8 +450,17 @@
       <c r="G2">
         <v>93.478800000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>88</v>
+      </c>
+      <c r="J2">
+        <v>93.781999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -451,8 +482,17 @@
       <c r="G3">
         <v>95.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>53</v>
+      </c>
+      <c r="I3">
+        <v>87</v>
+      </c>
+      <c r="J3">
+        <v>95.493499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -474,8 +514,17 @@
       <c r="G4">
         <v>95.493499999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>97.036900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -497,8 +546,17 @@
       <c r="G5">
         <v>96.714200000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>96.834999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -520,8 +578,17 @@
       <c r="G6">
         <v>96.834999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>96.114699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -543,8 +610,17 @@
       <c r="G7">
         <v>94.738200000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <v>95.175399999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -566,8 +642,17 @@
       <c r="G8">
         <v>97.357600000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>91</v>
+      </c>
+      <c r="J8">
+        <v>97.357600000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -589,8 +674,17 @@
       <c r="G9">
         <v>92.319299999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>88</v>
+      </c>
+      <c r="J9">
+        <v>95.106999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -612,8 +706,17 @@
       <c r="G10">
         <v>95.4375</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>85</v>
+      </c>
+      <c r="J10">
+        <v>95.916200000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -635,8 +738,17 @@
       <c r="G11">
         <v>72.405199999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>94</v>
+      </c>
+      <c r="J11">
+        <v>96.358000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -658,8 +770,17 @@
       <c r="G12">
         <v>94.081699999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>94.425299999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -681,8 +802,17 @@
       <c r="G13">
         <v>92.314899999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>88</v>
+      </c>
+      <c r="J13">
+        <v>92.314899999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -704,8 +834,17 @@
       <c r="G14">
         <v>94.507400000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>89</v>
+      </c>
+      <c r="J14">
+        <v>94.578800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -727,8 +866,17 @@
       <c r="G15">
         <v>95.350800000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>91.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -750,8 +898,17 @@
       <c r="G16">
         <v>84.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>96.036699999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -773,8 +930,17 @@
       <c r="G17">
         <v>91.596800000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>94</v>
+      </c>
+      <c r="J17">
+        <v>96.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -796,8 +962,17 @@
       <c r="G18">
         <v>96.29</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>89</v>
+      </c>
+      <c r="J18">
+        <v>93.935100000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -819,8 +994,17 @@
       <c r="G19">
         <v>94.218999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>91</v>
+      </c>
+      <c r="J19">
+        <v>95.547399999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -842,8 +1026,17 @@
       <c r="G20">
         <v>90.738100000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+      <c r="J20">
+        <v>94.251499999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -865,8 +1058,17 @@
       <c r="G21">
         <v>96.552599999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>97</v>
+      </c>
+      <c r="J21">
+        <v>97.117000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -888,8 +1090,17 @@
       <c r="G22">
         <v>97.117000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>95</v>
+      </c>
+      <c r="J22">
+        <v>97.3399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -911,8 +1122,17 @@
       <c r="G23">
         <v>97.3399</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>87</v>
+      </c>
+      <c r="J23">
+        <v>92.477099999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -934,8 +1154,17 @@
       <c r="G24">
         <v>94.751599999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>95.097999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -957,8 +1186,17 @@
       <c r="G25">
         <v>95.097999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>88</v>
+      </c>
+      <c r="J25">
+        <v>94.301500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -980,8 +1218,17 @@
       <c r="G26">
         <v>93.084999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>86</v>
+      </c>
+      <c r="J26">
+        <v>91.654399999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1003,8 +1250,17 @@
       <c r="G27">
         <v>95.2059</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>92</v>
+      </c>
+      <c r="J27">
+        <v>95.2059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1026,8 +1282,17 @@
       <c r="G28">
         <v>94.279399999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>90.7059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1049,8 +1314,17 @@
       <c r="G29">
         <v>94.291700000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>87</v>
+      </c>
+      <c r="J29">
+        <v>92.463200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1072,8 +1346,17 @@
       <c r="G30">
         <v>66.6417</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <v>95.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1095,8 +1378,17 @@
       <c r="G31">
         <v>92.158299999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>89</v>
+      </c>
+      <c r="J31">
+        <v>93.291700000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1118,8 +1410,17 @@
       <c r="G32">
         <v>91.916700000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>95</v>
+      </c>
+      <c r="J32">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1141,8 +1442,17 @@
       <c r="G33">
         <v>95.0167</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>88</v>
+      </c>
+      <c r="J33">
+        <v>94.291700000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1164,8 +1474,17 @@
       <c r="G34">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>90</v>
+      </c>
+      <c r="J34">
+        <v>94.628600000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1187,8 +1506,17 @@
       <c r="G35">
         <v>92.974999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>88</v>
+      </c>
+      <c r="J35">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1210,8 +1538,17 @@
       <c r="G36">
         <v>93.514300000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>95.552400000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1233,8 +1570,17 @@
       <c r="G37">
         <v>95.180999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>97.047600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1256,8 +1602,17 @@
       <c r="G38">
         <v>97.047600000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>87</v>
+      </c>
+      <c r="J38">
+        <v>94.676199999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1279,8 +1634,17 @@
       <c r="G39">
         <v>94.980999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>89</v>
+      </c>
+      <c r="J39">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1302,8 +1666,17 @@
       <c r="G40">
         <v>94.628600000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>85</v>
+      </c>
+      <c r="J40">
+        <v>90.009500000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1325,8 +1698,17 @@
       <c r="G41">
         <v>93.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>92</v>
+      </c>
+      <c r="J41">
+        <v>95.483500000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1348,8 +1730,17 @@
       <c r="G42">
         <v>95.552400000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>94.692300000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1371,8 +1762,17 @@
       <c r="G43">
         <v>93.390500000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>93</v>
+      </c>
+      <c r="J43">
+        <v>96.780199999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1394,8 +1794,17 @@
       <c r="G44">
         <v>94.351600000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>91</v>
+      </c>
+      <c r="J44">
+        <v>96.318700000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1417,8 +1826,17 @@
       <c r="G45">
         <v>93.857100000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>91</v>
+      </c>
+      <c r="J45">
+        <v>95.824200000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1440,8 +1858,17 @@
       <c r="G46">
         <v>94.175799999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>95.868099999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1463,8 +1890,17 @@
       <c r="G47">
         <v>95.483500000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>91</v>
+      </c>
+      <c r="J47">
+        <v>94.351600000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1486,8 +1922,17 @@
       <c r="G48">
         <v>92.022000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>89</v>
+      </c>
+      <c r="J48">
+        <v>94.406599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1509,8 +1954,17 @@
       <c r="G49">
         <v>95.868099999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>96</v>
+      </c>
+      <c r="J49">
+        <v>97.384600000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1532,8 +1986,17 @@
       <c r="G50">
         <v>96.318700000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <v>94.175799999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1554,6 +2017,15 @@
       </c>
       <c r="G51">
         <v>93.879099999999994</v>
+      </c>
+      <c r="H51">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <v>89</v>
+      </c>
+      <c r="J51">
+        <v>93.802199999999999</v>
       </c>
     </row>
   </sheetData>
